--- a/output/downstream.xlsx
+++ b/output/downstream.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myounes/Documents/Code/thesis/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEA4FA5-4F52-D94C-AEC7-F540DE1B8264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E4FA5D-6EF7-A245-9BA9-0B231CA108A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="700" windowWidth="35820" windowHeight="19020" activeTab="3" xr2:uid="{54864ABB-AE34-F64E-B0EA-B27938CA2F04}"/>
+    <workbookView xWindow="-36020" yWindow="2580" windowWidth="35820" windowHeight="19020" activeTab="3" xr2:uid="{54864ABB-AE34-F64E-B0EA-B27938CA2F04}"/>
   </bookViews>
   <sheets>
     <sheet name="dnn" sheetId="1" r:id="rId1"/>
     <sheet name="lstm" sheetId="2" r:id="rId2"/>
     <sheet name="xlsr" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="plots" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
@@ -4083,6 +4083,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>epochs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4261,7 +4316,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4813,7 +4868,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -10900,7 +10955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2674B205-D781-674A-9A8D-67E2EDE5D9D0}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A102" sqref="A102:C102"/>
     </sheetView>
   </sheetViews>
@@ -16170,8 +16225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4C8D9A-08F4-5B46-99D3-FB1519705F58}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
